--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -623,27 +623,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/artfynd/A 12026-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/artfynd/A 12026-2023.xlsx", "A 12026-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/kartor/A 12026-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/kartor/A 12026-2023.png", "A 12026-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/klagomål/A 12026-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/klagomål/A 12026-2023.docx", "A 12026-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/klagomålsmail/A 12026-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/klagomålsmail/A 12026-2023.docx", "A 12026-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/tillsyn/A 12026-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/tillsyn/A 12026-2023.docx", "A 12026-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/tillsynsmail/A 12026-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LOMMA/tillsynsmail/A 12026-2023.docx", "A 12026-2023")</f>
         <v/>
       </c>
     </row>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt LOMMA.xlsx
+++ b/Översikt LOMMA.xlsx
@@ -572,7 +572,7 @@
         <v>44995</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
